--- a/60sec/변수.xlsx
+++ b/60sec/변수.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Projects\60sec\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6ADED8-F65E-47C0-9B10-9BA65D2CFD12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="4275" windowHeight="3345" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="용사" sheetId="1" r:id="rId1"/>
-    <sheet name="기사단" sheetId="2" r:id="rId2"/>
-    <sheet name="스탯" sheetId="3" r:id="rId3"/>
-    <sheet name="신코어" sheetId="4" r:id="rId4"/>
-    <sheet name="길드" sheetId="5" r:id="rId5"/>
-    <sheet name="룬" sheetId="6" r:id="rId6"/>
-    <sheet name="기본스탯" sheetId="7" r:id="rId7"/>
-    <sheet name="---" sheetId="8" r:id="rId8"/>
-    <sheet name="장비" sheetId="9" r:id="rId9"/>
-    <sheet name="유물" sheetId="10" r:id="rId10"/>
-    <sheet name="계수" sheetId="11" r:id="rId11"/>
+    <sheet name="최종 계산식" sheetId="12" r:id="rId1"/>
+    <sheet name="용사" sheetId="1" r:id="rId2"/>
+    <sheet name="기사단" sheetId="2" r:id="rId3"/>
+    <sheet name="스탯" sheetId="3" r:id="rId4"/>
+    <sheet name="신코어" sheetId="4" r:id="rId5"/>
+    <sheet name="길드" sheetId="5" r:id="rId6"/>
+    <sheet name="룬" sheetId="6" r:id="rId7"/>
+    <sheet name="기본스탯" sheetId="7" r:id="rId8"/>
+    <sheet name="---" sheetId="8" r:id="rId9"/>
+    <sheet name="장비" sheetId="9" r:id="rId10"/>
+    <sheet name="유물" sheetId="10" r:id="rId11"/>
+    <sheet name="계수" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="83">
   <si>
     <t>골드 생산량</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,14 +326,50 @@
   </si>
   <si>
     <t>CP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 * 메달 * 100레벨 2배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯창</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +418,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,7 +472,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,9 +504,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,6 +556,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,48 +749,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9755EAE5-B076-4E4F-9B24-A97608E47CE3}">
+  <dimension ref="B1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -713,231 +805,181 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="N1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
       <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
       <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -947,30 +989,264 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>26*3*3+(3*16)</f>
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M3">
         <v>140</v>
       </c>
@@ -986,7 +1262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G5">
         <v>5500</v>
       </c>
@@ -994,7 +1270,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F6">
         <f>1.045^(G5-1+H5)*2^(G5/100)</f>
         <v>6.2147172878421347E+140</v>
@@ -1006,7 +1282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F9">
         <f>1.045^(G5-1+H5)</f>
         <v>1.7249305561245861E+124</v>
@@ -1016,7 +1292,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F10">
         <f>2^(G5/100)</f>
         <v>3.6028797018963968E+16</v>
@@ -1029,31 +1305,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1063,102 +1356,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1168,37 +1390,102 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1208,53 +1495,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1264,43 +1535,53 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A2:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1310,25 +1591,58 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1336,184 +1650,13 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/60sec/변수.xlsx
+++ b/60sec/변수.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Projects\60sec\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6ADED8-F65E-47C0-9B10-9BA65D2CFD12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="최종 계산식" sheetId="12" r:id="rId1"/>
@@ -26,12 +20,12 @@
     <sheet name="유물" sheetId="10" r:id="rId11"/>
     <sheet name="계수" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="84">
   <si>
     <t>골드 생산량</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,14 +356,18 @@
   </si>
   <si>
     <t>스탯창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합연산 후 곱연산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,7 +470,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,27 +502,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,24 +536,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -749,16 +711,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9755EAE5-B076-4E4F-9B24-A97608E47CE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14">
       <c r="B1" t="s">
         <v>79</v>
       </c>
@@ -793,9 +755,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14">
       <c r="F2" t="s">
         <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -805,16 +770,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="C1" t="s">
         <v>43</v>
       </c>
@@ -852,7 +817,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="C2" t="s">
         <v>48</v>
       </c>
@@ -890,7 +855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -898,17 +863,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="B4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="B5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -916,27 +881,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="B7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="B8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="B9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="B10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -944,22 +909,22 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="B12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="B13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="B14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -967,17 +932,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="B16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>64</v>
       </c>
@@ -989,16 +954,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="C1" t="s">
         <v>65</v>
       </c>
@@ -1030,7 +995,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1044,7 +1009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -1052,7 +1017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -1060,7 +1025,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -1068,7 +1033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="B6" t="s">
         <v>70</v>
       </c>
@@ -1076,7 +1041,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="B7" t="s">
         <v>71</v>
       </c>
@@ -1084,7 +1049,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="B8" t="s">
         <v>72</v>
       </c>
@@ -1092,7 +1057,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1106,7 +1071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -1114,7 +1079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -1122,7 +1087,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1130,7 +1095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="B13" t="s">
         <v>70</v>
       </c>
@@ -1138,7 +1103,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="B14" t="s">
         <v>71</v>
       </c>
@@ -1146,7 +1111,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="B15" t="s">
         <v>72</v>
       </c>
@@ -1154,7 +1119,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1168,7 +1133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -1176,7 +1141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -1184,7 +1149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -1192,7 +1157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10">
       <c r="B20" t="s">
         <v>70</v>
       </c>
@@ -1200,7 +1165,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10">
       <c r="B21" t="s">
         <v>71</v>
       </c>
@@ -1208,7 +1173,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10">
       <c r="B22" t="s">
         <v>72</v>
       </c>
@@ -1223,30 +1188,30 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2">
         <f>26*3*3+(3*16)</f>
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="M3">
         <v>140</v>
       </c>
@@ -1262,7 +1227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="G5">
         <v>5500</v>
       </c>
@@ -1270,7 +1235,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="F6">
         <f>1.045^(G5-1+H5)*2^(G5/100)</f>
         <v>6.2147172878421347E+140</v>
@@ -1282,7 +1247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="F9">
         <f>1.045^(G5-1+H5)</f>
         <v>1.7249305561245861E+124</v>
@@ -1292,7 +1257,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="F10">
         <f>2^(G5/100)</f>
         <v>3.6028797018963968E+16</v>
@@ -1305,46 +1270,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1356,16 +1321,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -1373,12 +1338,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1390,19 +1355,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>22</v>
       </c>
@@ -1413,77 +1378,77 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1495,16 +1460,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -1518,12 +1483,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1535,51 +1500,51 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1591,41 +1556,41 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1637,12 +1602,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1650,12 +1615,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
